--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tomstechacademy-my.sharepoint.com/personal/thomas_janssen_tomstechacademy_com/Documents/00. TOMS TECH ACADEMY/06. Python Scripts/Local RAG with Ollama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_2B59D2BFD360DDA1F0FFEC915C3088B352998D66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C3B4A83-6D1E-44D1-94B9-C48702F61C31}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_2B59D2BFD360DDA1F0FFEC915C3088B352998D66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B089012-FFAC-4EE4-BCB4-4EC01F780444}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,10 @@
     <t>python</t>
   </si>
   <si>
-    <t>javascript</t>
+    <t>Pages</t>
   </si>
   <si>
-    <t>Pages</t>
+    <t>langchain</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +411,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -424,7 +424,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tomstechacademy-my.sharepoint.com/personal/thomas_janssen_tomstechacademy_com/Documents/00. TOMS TECH ACADEMY/06. Python Scripts/Local RAG with Ollama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_2B59D2BFD360DDA1F0FFEC915C3088B352998D66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B089012-FFAC-4EE4-BCB4-4EC01F780444}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_2B59D2BFD360DDA1F0FFEC915C3088B352998D66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44B0F8CE-A557-4FF7-A341-E7288EB2A3D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
     <t>Keyword</t>
   </si>
   <si>
-    <t>python</t>
+    <t>Pages</t>
   </si>
   <si>
-    <t>Pages</t>
+    <t>python</t>
   </si>
   <si>
     <t>langchain</t>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,12 +411,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
